--- a/learning_curves.xlsx
+++ b/learning_curves.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$E$1:$E$100</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="25">
   <si>
     <t>model #</t>
   </si>
@@ -75,6 +78,30 @@
   </si>
   <si>
     <t>dense128_relu_e-5_dropout03_dense64_relu_e-7</t>
+  </si>
+  <si>
+    <t>dense128_relu_e-5_dropout03_dense64_relu_e-5</t>
+  </si>
+  <si>
+    <t>dense128_relu_dense128_relu</t>
+  </si>
+  <si>
+    <t>dense128_relu_dense128_relu_dense128_relu</t>
+  </si>
+  <si>
+    <t>d128_relu_dr1_d128_relu_dr1_d128</t>
+  </si>
+  <si>
+    <t>d128_relu_e-5_dr2_d128_relu_dr2_d128</t>
+  </si>
+  <si>
+    <t>dense128_relu_5e-5</t>
+  </si>
+  <si>
+    <t>dense64_relu</t>
+  </si>
+  <si>
+    <t>dense64_relu_e-5</t>
   </si>
 </sst>
 </file>
@@ -392,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="I134" sqref="I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,9 +1620,18 @@
       <c r="B57" t="s">
         <v>16</v>
       </c>
+      <c r="C57">
+        <v>441</v>
+      </c>
+      <c r="D57">
+        <v>493</v>
+      </c>
       <c r="E57">
         <v>3</v>
       </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -1604,9 +1640,18 @@
       <c r="B58" t="s">
         <v>16</v>
       </c>
+      <c r="C58">
+        <v>377</v>
+      </c>
+      <c r="D58">
+        <v>501</v>
+      </c>
       <c r="E58">
         <v>4</v>
       </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -1615,8 +1660,17 @@
       <c r="B59" t="s">
         <v>16</v>
       </c>
+      <c r="C59">
+        <v>334</v>
+      </c>
+      <c r="D59">
+        <v>490</v>
+      </c>
       <c r="E59">
         <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -1626,8 +1680,17 @@
       <c r="B60" t="s">
         <v>16</v>
       </c>
+      <c r="C60">
+        <v>309</v>
+      </c>
+      <c r="D60">
+        <v>528</v>
+      </c>
       <c r="E60">
         <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -1637,11 +1700,1549 @@
       <c r="B61" t="s">
         <v>16</v>
       </c>
+      <c r="C61">
+        <v>275</v>
+      </c>
+      <c r="D61">
+        <v>514</v>
+      </c>
       <c r="E61">
         <v>7</v>
       </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>5</v>
+      </c>
+      <c r="H61">
+        <v>5896</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>260</v>
+      </c>
+      <c r="D62">
+        <v>546</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63">
+        <v>705</v>
+      </c>
+      <c r="D63">
+        <v>641</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64">
+        <v>533</v>
+      </c>
+      <c r="D64">
+        <v>585</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65">
+        <v>443</v>
+      </c>
+      <c r="D65">
+        <v>510</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66">
+        <v>386</v>
+      </c>
+      <c r="D66">
+        <v>476</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67">
+        <v>345</v>
+      </c>
+      <c r="D67">
+        <v>485</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68">
+        <v>311</v>
+      </c>
+      <c r="D68">
+        <v>516</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <v>6056</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69">
+        <v>290</v>
+      </c>
+      <c r="D69">
+        <v>517</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70">
+        <v>637</v>
+      </c>
+      <c r="D70">
+        <v>493</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71">
+        <v>302</v>
+      </c>
+      <c r="D71">
+        <v>490</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72">
+        <v>175</v>
+      </c>
+      <c r="D72">
+        <v>459</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73">
+        <v>114</v>
+      </c>
+      <c r="D73">
+        <v>520</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>7073</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74">
+        <v>83</v>
+      </c>
+      <c r="D74">
+        <v>516</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75">
+        <v>679</v>
+      </c>
+      <c r="D75">
+        <v>502</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76">
+        <v>318</v>
+      </c>
+      <c r="D76">
+        <v>466</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77">
+        <v>195</v>
+      </c>
+      <c r="D77">
+        <v>465</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78">
+        <v>120</v>
+      </c>
+      <c r="D78">
+        <v>536</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78">
+        <v>6627</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79">
+        <v>89</v>
+      </c>
+      <c r="D79">
+        <v>598</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>644</v>
+      </c>
+      <c r="D80">
+        <v>568</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>427</v>
+      </c>
+      <c r="D81">
+        <v>516</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <v>306</v>
+      </c>
+      <c r="D82">
+        <v>491</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83">
+        <v>218</v>
+      </c>
+      <c r="D83">
+        <v>480</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84">
+        <v>153</v>
+      </c>
+      <c r="D84">
+        <v>545</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84">
+        <v>6459</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85">
+        <v>113</v>
+      </c>
+      <c r="D85">
+        <v>616</v>
+      </c>
+      <c r="E85">
+        <v>6</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86">
+        <v>704</v>
+      </c>
+      <c r="D86">
+        <v>810</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87">
+        <v>525</v>
+      </c>
+      <c r="D87">
+        <v>639</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88">
+        <v>455</v>
+      </c>
+      <c r="D88">
+        <v>499</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89">
+        <v>390</v>
+      </c>
+      <c r="D89">
+        <v>582</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90">
+        <v>344</v>
+      </c>
+      <c r="D90">
+        <v>550</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91">
+        <v>300</v>
+      </c>
+      <c r="D91">
+        <v>654</v>
+      </c>
+      <c r="E91">
+        <v>6</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91">
+        <v>5459</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92">
+        <v>269</v>
+      </c>
+      <c r="D92">
+        <v>649</v>
+      </c>
+      <c r="E92">
+        <v>7</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93">
+        <v>775</v>
+      </c>
+      <c r="D93">
+        <v>508</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>12</v>
+      </c>
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94">
+        <v>441</v>
+      </c>
+      <c r="D94">
+        <v>466</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95">
+        <v>343</v>
+      </c>
+      <c r="D95">
+        <v>437</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96">
+        <v>295</v>
+      </c>
+      <c r="D96">
+        <v>415</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97">
+        <v>275</v>
+      </c>
+      <c r="D97">
+        <v>415</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>12</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98">
+        <v>252</v>
+      </c>
+      <c r="D98">
+        <v>417</v>
+      </c>
+      <c r="E98">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>12</v>
+      </c>
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99">
+        <v>239</v>
+      </c>
+      <c r="D99">
+        <v>409</v>
+      </c>
+      <c r="E99">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>12</v>
+      </c>
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100">
+        <v>232</v>
+      </c>
+      <c r="D100">
+        <v>407</v>
+      </c>
+      <c r="E100">
+        <v>8</v>
+      </c>
+      <c r="F100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>12</v>
+      </c>
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101">
+        <v>228</v>
+      </c>
+      <c r="D101">
+        <v>416</v>
+      </c>
+      <c r="E101">
+        <v>9</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>12</v>
+      </c>
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102">
+        <v>223</v>
+      </c>
+      <c r="D102">
+        <v>402</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>12</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103">
+        <v>222</v>
+      </c>
+      <c r="D103">
+        <v>400</v>
+      </c>
+      <c r="E103">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>12</v>
+      </c>
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104">
+        <v>218</v>
+      </c>
+      <c r="D104">
+        <v>408</v>
+      </c>
+      <c r="E104">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>12</v>
+      </c>
+      <c r="B105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105">
+        <v>214</v>
+      </c>
+      <c r="D105">
+        <v>401</v>
+      </c>
+      <c r="E105">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>12</v>
+      </c>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106">
+        <v>210</v>
+      </c>
+      <c r="D106">
+        <v>413</v>
+      </c>
+      <c r="E106">
+        <v>14</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107">
+        <v>209</v>
+      </c>
+      <c r="D107">
+        <v>398</v>
+      </c>
+      <c r="E107">
+        <v>15</v>
+      </c>
+      <c r="F107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>12</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108">
+        <v>205</v>
+      </c>
+      <c r="D108">
+        <v>400</v>
+      </c>
+      <c r="E108">
+        <v>16</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>5</v>
+      </c>
+      <c r="H108">
+        <v>9065</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>12</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109">
+        <v>203</v>
+      </c>
+      <c r="D109">
+        <v>403</v>
+      </c>
+      <c r="E109">
+        <v>17</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>6</v>
+      </c>
+      <c r="H109">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>13</v>
+      </c>
+      <c r="B110" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110">
+        <v>664</v>
+      </c>
+      <c r="D110">
+        <v>476</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>13</v>
+      </c>
+      <c r="B111" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111">
+        <v>273</v>
+      </c>
+      <c r="D111">
+        <v>452</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>13</v>
+      </c>
+      <c r="B112" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112">
+        <v>158</v>
+      </c>
+      <c r="D112">
+        <v>448</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>13</v>
+      </c>
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113">
+        <v>107</v>
+      </c>
+      <c r="D113">
+        <v>438</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>13</v>
+      </c>
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114">
+        <v>78</v>
+      </c>
+      <c r="D114">
+        <v>441</v>
+      </c>
+      <c r="E114">
+        <v>5</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>13</v>
+      </c>
+      <c r="B115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115">
+        <v>62</v>
+      </c>
+      <c r="D115">
+        <v>460</v>
+      </c>
+      <c r="E115">
+        <v>6</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>5</v>
+      </c>
+      <c r="H115">
+        <v>8679</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>13</v>
+      </c>
+      <c r="B116" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116">
+        <v>52</v>
+      </c>
+      <c r="D116">
+        <v>482</v>
+      </c>
+      <c r="E116">
+        <v>7</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>6</v>
+      </c>
+      <c r="H116">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117">
+        <v>687</v>
+      </c>
+      <c r="D117">
+        <v>461</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118">
+        <v>313</v>
+      </c>
+      <c r="D118">
+        <v>434</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119">
+        <v>212</v>
+      </c>
+      <c r="D119">
+        <v>422</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120">
+        <v>168</v>
+      </c>
+      <c r="D120">
+        <v>432</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121">
+        <v>148</v>
+      </c>
+      <c r="D121">
+        <v>412</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
+      </c>
+      <c r="F121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>14</v>
+      </c>
+      <c r="B122" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122">
+        <v>131</v>
+      </c>
+      <c r="D122">
+        <v>406</v>
+      </c>
+      <c r="E122">
+        <v>6</v>
+      </c>
+      <c r="F122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>14</v>
+      </c>
+      <c r="B123" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123">
+        <v>122</v>
+      </c>
+      <c r="D123">
+        <v>418</v>
+      </c>
+      <c r="E123">
+        <v>7</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124">
+        <v>113</v>
+      </c>
+      <c r="D124">
+        <v>412</v>
+      </c>
+      <c r="E124">
+        <v>8</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125">
+        <v>110</v>
+      </c>
+      <c r="D125">
+        <v>411</v>
+      </c>
+      <c r="E125">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>14</v>
+      </c>
+      <c r="B126" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126">
+        <v>103</v>
+      </c>
+      <c r="D126">
+        <v>410</v>
+      </c>
+      <c r="E126">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127">
+        <v>98</v>
+      </c>
+      <c r="D127">
+        <v>408</v>
+      </c>
+      <c r="E127">
+        <v>11</v>
+      </c>
+      <c r="F127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>14</v>
+      </c>
+      <c r="B128" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128">
+        <v>95</v>
+      </c>
+      <c r="D128">
+        <v>416</v>
+      </c>
+      <c r="E128">
+        <v>12</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>14</v>
+      </c>
+      <c r="B129" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129">
+        <v>92</v>
+      </c>
+      <c r="D129">
+        <v>407</v>
+      </c>
+      <c r="E129">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>14</v>
+      </c>
+      <c r="B130" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130">
+        <v>90</v>
+      </c>
+      <c r="D130">
+        <v>407</v>
+      </c>
+      <c r="E130">
+        <v>14</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131">
+        <v>89</v>
+      </c>
+      <c r="D131">
+        <v>407</v>
+      </c>
+      <c r="E131">
+        <v>15</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>5</v>
+      </c>
+      <c r="H131">
+        <v>9362</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>14</v>
+      </c>
+      <c r="B132" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132">
+        <v>87</v>
+      </c>
+      <c r="D132">
+        <v>412</v>
+      </c>
+      <c r="E132">
+        <v>16</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>6</v>
+      </c>
+      <c r="H132">
+        <v>1258</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E100"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/learning_curves.xlsx
+++ b/learning_curves.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="29">
   <si>
     <t>model #</t>
   </si>
@@ -103,6 +103,18 @@
   <si>
     <t>dense64_relu_e-5</t>
   </si>
+  <si>
+    <t>dense64_relu_e-4</t>
+  </si>
+  <si>
+    <t>dense128_relu_5e-4</t>
+  </si>
+  <si>
+    <t>dense128_relu_2e-4</t>
+  </si>
+  <si>
+    <t>dense128_relu_1.5e-4</t>
+  </si>
 </sst>
 </file>
 
@@ -154,6 +166,1949 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trloss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$2:$C$172</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="171"/>
+                <c:pt idx="0">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>693</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>818</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1149</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>val loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$2:$D$172</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="171"/>
+                <c:pt idx="0">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="194375736"/>
+        <c:axId val="194381976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="194375736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="194381976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="194381976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="194375736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,10 +2374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="I134" sqref="I134"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="G173" sqref="G173:G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3241,8 +5196,870 @@
         <v>1258</v>
       </c>
     </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>15</v>
+      </c>
+      <c r="B133" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133">
+        <v>818</v>
+      </c>
+      <c r="D133">
+        <v>480</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>15</v>
+      </c>
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134">
+        <v>469</v>
+      </c>
+      <c r="D134">
+        <v>440</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>15</v>
+      </c>
+      <c r="B135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135">
+        <v>401</v>
+      </c>
+      <c r="D135">
+        <v>448</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>15</v>
+      </c>
+      <c r="B136" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136">
+        <v>371</v>
+      </c>
+      <c r="D136">
+        <v>415</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
+      </c>
+      <c r="F136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>15</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137">
+        <v>349</v>
+      </c>
+      <c r="D137">
+        <v>423</v>
+      </c>
+      <c r="E137">
+        <v>5</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>15</v>
+      </c>
+      <c r="B138" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138">
+        <v>335</v>
+      </c>
+      <c r="D138">
+        <v>419</v>
+      </c>
+      <c r="E138">
+        <v>6</v>
+      </c>
+      <c r="F138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>15</v>
+      </c>
+      <c r="B139" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139">
+        <v>325</v>
+      </c>
+      <c r="D139">
+        <v>416</v>
+      </c>
+      <c r="E139">
+        <v>7</v>
+      </c>
+      <c r="F139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>15</v>
+      </c>
+      <c r="B140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140">
+        <v>321</v>
+      </c>
+      <c r="D140">
+        <v>415</v>
+      </c>
+      <c r="E140">
+        <v>8</v>
+      </c>
+      <c r="F140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>15</v>
+      </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141">
+        <v>314</v>
+      </c>
+      <c r="D141">
+        <v>410</v>
+      </c>
+      <c r="E141">
+        <v>9</v>
+      </c>
+      <c r="F141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>15</v>
+      </c>
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142">
+        <v>312</v>
+      </c>
+      <c r="D142">
+        <v>409</v>
+      </c>
+      <c r="E142">
+        <v>10</v>
+      </c>
+      <c r="F142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>15</v>
+      </c>
+      <c r="B143" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143">
+        <v>310</v>
+      </c>
+      <c r="D143">
+        <v>419</v>
+      </c>
+      <c r="E143">
+        <v>11</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>15</v>
+      </c>
+      <c r="B144" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144">
+        <v>308</v>
+      </c>
+      <c r="D144">
+        <v>411</v>
+      </c>
+      <c r="E144">
+        <v>12</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>15</v>
+      </c>
+      <c r="B145" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145">
+        <v>311</v>
+      </c>
+      <c r="D145">
+        <v>401</v>
+      </c>
+      <c r="E145">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>15</v>
+      </c>
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146">
+        <v>306</v>
+      </c>
+      <c r="D146">
+        <v>416</v>
+      </c>
+      <c r="E146">
+        <v>14</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>15</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147">
+        <v>303</v>
+      </c>
+      <c r="D147">
+        <v>409</v>
+      </c>
+      <c r="E147">
+        <v>15</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>15</v>
+      </c>
+      <c r="B148" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148">
+        <v>305</v>
+      </c>
+      <c r="D148">
+        <v>407</v>
+      </c>
+      <c r="E148">
+        <v>16</v>
+      </c>
+      <c r="F148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>15</v>
+      </c>
+      <c r="B149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149">
+        <v>305</v>
+      </c>
+      <c r="D149">
+        <v>403</v>
+      </c>
+      <c r="E149">
+        <v>17</v>
+      </c>
+      <c r="F149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>15</v>
+      </c>
+      <c r="B150" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150">
+        <v>301</v>
+      </c>
+      <c r="D150">
+        <v>407</v>
+      </c>
+      <c r="E150">
+        <v>18</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>15</v>
+      </c>
+      <c r="B151" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151">
+        <v>300</v>
+      </c>
+      <c r="D151">
+        <v>405</v>
+      </c>
+      <c r="E151">
+        <v>19</v>
+      </c>
+      <c r="F151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>15</v>
+      </c>
+      <c r="B152" t="s">
+        <v>25</v>
+      </c>
+      <c r="C152">
+        <v>298</v>
+      </c>
+      <c r="D152">
+        <v>414</v>
+      </c>
+      <c r="E152">
+        <v>20</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>15</v>
+      </c>
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153">
+        <v>296</v>
+      </c>
+      <c r="D153">
+        <v>409</v>
+      </c>
+      <c r="E153">
+        <v>21</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>15</v>
+      </c>
+      <c r="B154" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154">
+        <v>296</v>
+      </c>
+      <c r="D154">
+        <v>405</v>
+      </c>
+      <c r="E154">
+        <v>22</v>
+      </c>
+      <c r="F154" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" t="s">
+        <v>5</v>
+      </c>
+      <c r="H154">
+        <v>8511</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>15</v>
+      </c>
+      <c r="B155" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155">
+        <v>296</v>
+      </c>
+      <c r="D155">
+        <v>411</v>
+      </c>
+      <c r="E155">
+        <v>23</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" t="s">
+        <v>6</v>
+      </c>
+      <c r="H155">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>16</v>
+      </c>
+      <c r="B156" t="s">
+        <v>26</v>
+      </c>
+      <c r="C156">
+        <v>1149</v>
+      </c>
+      <c r="D156">
+        <v>516</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>16</v>
+      </c>
+      <c r="B157" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157">
+        <v>801</v>
+      </c>
+      <c r="D157">
+        <v>506</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>16</v>
+      </c>
+      <c r="B158" t="s">
+        <v>26</v>
+      </c>
+      <c r="C158">
+        <v>767</v>
+      </c>
+      <c r="D158">
+        <v>485</v>
+      </c>
+      <c r="E158">
+        <v>3</v>
+      </c>
+      <c r="F158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>16</v>
+      </c>
+      <c r="B159" t="s">
+        <v>26</v>
+      </c>
+      <c r="C159">
+        <v>747</v>
+      </c>
+      <c r="D159">
+        <v>501</v>
+      </c>
+      <c r="E159">
+        <v>4</v>
+      </c>
+      <c r="F159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>16</v>
+      </c>
+      <c r="B160" t="s">
+        <v>26</v>
+      </c>
+      <c r="C160">
+        <v>729</v>
+      </c>
+      <c r="D160">
+        <v>484</v>
+      </c>
+      <c r="E160">
+        <v>5</v>
+      </c>
+      <c r="F160" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160" t="s">
+        <v>5</v>
+      </c>
+      <c r="H160">
+        <v>6207</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>16</v>
+      </c>
+      <c r="B161" t="s">
+        <v>26</v>
+      </c>
+      <c r="C161">
+        <v>716</v>
+      </c>
+      <c r="D161">
+        <v>491</v>
+      </c>
+      <c r="E161">
+        <v>6</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" t="s">
+        <v>6</v>
+      </c>
+      <c r="H161">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>17</v>
+      </c>
+      <c r="B162" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162">
+        <v>973</v>
+      </c>
+      <c r="D162">
+        <v>478</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>17</v>
+      </c>
+      <c r="B163" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163">
+        <v>616</v>
+      </c>
+      <c r="D163">
+        <v>461</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>17</v>
+      </c>
+      <c r="B164" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164">
+        <v>548</v>
+      </c>
+      <c r="D164">
+        <v>459</v>
+      </c>
+      <c r="E164">
+        <v>3</v>
+      </c>
+      <c r="F164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>17</v>
+      </c>
+      <c r="B165" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165">
+        <v>511</v>
+      </c>
+      <c r="D165">
+        <v>448</v>
+      </c>
+      <c r="E165">
+        <v>4</v>
+      </c>
+      <c r="F165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>17</v>
+      </c>
+      <c r="B166" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166">
+        <v>492</v>
+      </c>
+      <c r="D166">
+        <v>440</v>
+      </c>
+      <c r="E166">
+        <v>5</v>
+      </c>
+      <c r="F166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>17</v>
+      </c>
+      <c r="B167" t="s">
+        <v>27</v>
+      </c>
+      <c r="C167">
+        <v>483</v>
+      </c>
+      <c r="D167">
+        <v>426</v>
+      </c>
+      <c r="E167">
+        <v>6</v>
+      </c>
+      <c r="F167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>17</v>
+      </c>
+      <c r="B168" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168">
+        <v>472</v>
+      </c>
+      <c r="D168">
+        <v>451</v>
+      </c>
+      <c r="E168">
+        <v>7</v>
+      </c>
+      <c r="F168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>17</v>
+      </c>
+      <c r="B169" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169">
+        <v>465</v>
+      </c>
+      <c r="D169">
+        <v>429</v>
+      </c>
+      <c r="E169">
+        <v>8</v>
+      </c>
+      <c r="F169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>17</v>
+      </c>
+      <c r="B170" t="s">
+        <v>27</v>
+      </c>
+      <c r="C170">
+        <v>461</v>
+      </c>
+      <c r="D170">
+        <v>430</v>
+      </c>
+      <c r="E170">
+        <v>9</v>
+      </c>
+      <c r="F170" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170" t="s">
+        <v>5</v>
+      </c>
+      <c r="H170">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>17</v>
+      </c>
+      <c r="B171" t="s">
+        <v>27</v>
+      </c>
+      <c r="C171">
+        <v>455</v>
+      </c>
+      <c r="D171">
+        <v>432</v>
+      </c>
+      <c r="E171">
+        <v>10</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" t="s">
+        <v>6</v>
+      </c>
+      <c r="H171">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>18</v>
+      </c>
+      <c r="B172" t="s">
+        <v>28</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>18</v>
+      </c>
+      <c r="B173" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+      <c r="F173" t="s">
+        <v>9</v>
+      </c>
+      <c r="G173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>18</v>
+      </c>
+      <c r="B174" t="s">
+        <v>28</v>
+      </c>
+      <c r="E174">
+        <v>3</v>
+      </c>
+      <c r="G174" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E100"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/learning_curves.xlsx
+++ b/learning_curves.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="30">
   <si>
     <t>model #</t>
   </si>
@@ -115,15 +115,25 @@
   <si>
     <t>dense128_relu_1.5e-4</t>
   </si>
+  <si>
+    <t>dense128_relu_1.25e-4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,8 +159,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -259,10 +270,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$172</c:f>
+              <c:f>Tabelle1!$C$2:$C$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="171"/>
+                <c:ptCount val="221"/>
                 <c:pt idx="0">
                   <c:v>622</c:v>
                 </c:pt>
@@ -772,6 +783,159 @@
                 </c:pt>
                 <c:pt idx="169">
                   <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -818,10 +982,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$2:$D$172</c:f>
+              <c:f>Tabelle1!$D$2:$D$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="171"/>
+                <c:ptCount val="221"/>
                 <c:pt idx="0">
                   <c:v>469</c:v>
                 </c:pt>
@@ -1331,6 +1495,159 @@
                 </c:pt>
                 <c:pt idx="169">
                   <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>410</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,11 +1664,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="194375736"/>
-        <c:axId val="194381976"/>
+        <c:axId val="197946968"/>
+        <c:axId val="197501088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194375736"/>
+        <c:axId val="197946968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,7 +1710,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194381976"/>
+        <c:crossAx val="197501088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1401,7 +1718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194381976"/>
+        <c:axId val="197501088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,7 +1769,529 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194375736"/>
+        <c:crossAx val="197946968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$190:$C$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$190:$D$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>410</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="7126656"/>
+        <c:axId val="197790800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="7126656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197790800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="197790800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7126656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1534,6 +2373,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2076,20 +2955,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2103,6 +3485,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2374,10 +3786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173:G174"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6019,6 +7431,12 @@
       <c r="B172" t="s">
         <v>28</v>
       </c>
+      <c r="C172">
+        <v>920</v>
+      </c>
+      <c r="D172">
+        <v>481</v>
+      </c>
       <c r="E172">
         <v>1</v>
       </c>
@@ -6033,14 +7451,17 @@
       <c r="B173" t="s">
         <v>28</v>
       </c>
+      <c r="C173">
+        <v>569</v>
+      </c>
+      <c r="D173">
+        <v>456</v>
+      </c>
       <c r="E173">
         <v>2</v>
       </c>
       <c r="F173" t="s">
         <v>9</v>
-      </c>
-      <c r="G173" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -6050,16 +7471,1007 @@
       <c r="B174" t="s">
         <v>28</v>
       </c>
+      <c r="C174">
+        <v>491</v>
+      </c>
+      <c r="D174">
+        <v>445</v>
+      </c>
       <c r="E174">
         <v>3</v>
       </c>
-      <c r="G174" t="s">
+      <c r="F174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>18</v>
+      </c>
+      <c r="B175" t="s">
+        <v>28</v>
+      </c>
+      <c r="C175">
+        <v>458</v>
+      </c>
+      <c r="D175">
+        <v>438</v>
+      </c>
+      <c r="E175">
+        <v>4</v>
+      </c>
+      <c r="F175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>18</v>
+      </c>
+      <c r="B176" t="s">
+        <v>28</v>
+      </c>
+      <c r="C176">
+        <v>437</v>
+      </c>
+      <c r="D176">
+        <v>430</v>
+      </c>
+      <c r="E176">
+        <v>5</v>
+      </c>
+      <c r="F176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>18</v>
+      </c>
+      <c r="B177" t="s">
+        <v>28</v>
+      </c>
+      <c r="C177">
+        <v>426</v>
+      </c>
+      <c r="D177">
+        <v>427</v>
+      </c>
+      <c r="E177">
         <v>6</v>
+      </c>
+      <c r="F177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>18</v>
+      </c>
+      <c r="B178" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178">
+        <v>414</v>
+      </c>
+      <c r="D178">
+        <v>422</v>
+      </c>
+      <c r="E178">
+        <v>7</v>
+      </c>
+      <c r="F178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>18</v>
+      </c>
+      <c r="B179" t="s">
+        <v>28</v>
+      </c>
+      <c r="C179">
+        <v>408</v>
+      </c>
+      <c r="D179">
+        <v>427</v>
+      </c>
+      <c r="E179">
+        <v>8</v>
+      </c>
+      <c r="F179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>18</v>
+      </c>
+      <c r="B180" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180">
+        <v>404</v>
+      </c>
+      <c r="D180">
+        <v>413</v>
+      </c>
+      <c r="E180">
+        <v>9</v>
+      </c>
+      <c r="F180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>18</v>
+      </c>
+      <c r="B181" t="s">
+        <v>28</v>
+      </c>
+      <c r="C181">
+        <v>400</v>
+      </c>
+      <c r="D181">
+        <v>416</v>
+      </c>
+      <c r="E181">
+        <v>10</v>
+      </c>
+      <c r="F181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>18</v>
+      </c>
+      <c r="B182" t="s">
+        <v>28</v>
+      </c>
+      <c r="C182">
+        <v>396</v>
+      </c>
+      <c r="D182">
+        <v>429</v>
+      </c>
+      <c r="E182">
+        <v>11</v>
+      </c>
+      <c r="F182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>18</v>
+      </c>
+      <c r="B183" t="s">
+        <v>28</v>
+      </c>
+      <c r="C183">
+        <v>394</v>
+      </c>
+      <c r="D183">
+        <v>418</v>
+      </c>
+      <c r="E183">
+        <v>12</v>
+      </c>
+      <c r="F183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>18</v>
+      </c>
+      <c r="B184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C184">
+        <v>391</v>
+      </c>
+      <c r="D184">
+        <v>420</v>
+      </c>
+      <c r="E184">
+        <v>13</v>
+      </c>
+      <c r="F184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>18</v>
+      </c>
+      <c r="B185" t="s">
+        <v>28</v>
+      </c>
+      <c r="C185">
+        <v>384</v>
+      </c>
+      <c r="D185">
+        <v>422</v>
+      </c>
+      <c r="E185">
+        <v>14</v>
+      </c>
+      <c r="F185" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" t="s">
+        <v>5</v>
+      </c>
+      <c r="H185">
+        <v>8370</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>18</v>
+      </c>
+      <c r="B186" t="s">
+        <v>28</v>
+      </c>
+      <c r="C186">
+        <v>381</v>
+      </c>
+      <c r="D186">
+        <v>422</v>
+      </c>
+      <c r="E186">
+        <v>15</v>
+      </c>
+      <c r="F186" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" t="s">
+        <v>6</v>
+      </c>
+      <c r="H186">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>19</v>
+      </c>
+      <c r="B187" t="s">
+        <v>29</v>
+      </c>
+      <c r="C187">
+        <v>886</v>
+      </c>
+      <c r="D187">
+        <v>462</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>19</v>
+      </c>
+      <c r="B188" t="s">
+        <v>29</v>
+      </c>
+      <c r="C188">
+        <v>546</v>
+      </c>
+      <c r="D188">
+        <v>439</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="F188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>19</v>
+      </c>
+      <c r="B189" t="s">
+        <v>29</v>
+      </c>
+      <c r="C189">
+        <v>463</v>
+      </c>
+      <c r="D189">
+        <v>444</v>
+      </c>
+      <c r="E189">
+        <v>3</v>
+      </c>
+      <c r="F189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>19</v>
+      </c>
+      <c r="B190" t="s">
+        <v>29</v>
+      </c>
+      <c r="C190">
+        <v>430</v>
+      </c>
+      <c r="D190">
+        <v>431</v>
+      </c>
+      <c r="E190">
+        <v>4</v>
+      </c>
+      <c r="F190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>19</v>
+      </c>
+      <c r="B191" t="s">
+        <v>29</v>
+      </c>
+      <c r="C191">
+        <v>408</v>
+      </c>
+      <c r="D191">
+        <v>422</v>
+      </c>
+      <c r="E191">
+        <v>5</v>
+      </c>
+      <c r="F191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>19</v>
+      </c>
+      <c r="B192" t="s">
+        <v>29</v>
+      </c>
+      <c r="C192">
+        <v>393</v>
+      </c>
+      <c r="D192">
+        <v>425</v>
+      </c>
+      <c r="E192">
+        <v>6</v>
+      </c>
+      <c r="F192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>19</v>
+      </c>
+      <c r="B193" t="s">
+        <v>29</v>
+      </c>
+      <c r="C193">
+        <v>386</v>
+      </c>
+      <c r="D193">
+        <v>420</v>
+      </c>
+      <c r="E193">
+        <v>7</v>
+      </c>
+      <c r="F193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>19</v>
+      </c>
+      <c r="B194" t="s">
+        <v>29</v>
+      </c>
+      <c r="C194">
+        <v>375</v>
+      </c>
+      <c r="D194">
+        <v>418</v>
+      </c>
+      <c r="E194">
+        <v>8</v>
+      </c>
+      <c r="F194" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>19</v>
+      </c>
+      <c r="B195" t="s">
+        <v>29</v>
+      </c>
+      <c r="C195">
+        <v>363</v>
+      </c>
+      <c r="D195">
+        <v>419</v>
+      </c>
+      <c r="E195">
+        <v>9</v>
+      </c>
+      <c r="F195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>19</v>
+      </c>
+      <c r="B196" t="s">
+        <v>29</v>
+      </c>
+      <c r="C196">
+        <v>362</v>
+      </c>
+      <c r="D196">
+        <v>421</v>
+      </c>
+      <c r="E196">
+        <v>10</v>
+      </c>
+      <c r="F196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>19</v>
+      </c>
+      <c r="B197" t="s">
+        <v>29</v>
+      </c>
+      <c r="C197">
+        <v>361</v>
+      </c>
+      <c r="D197">
+        <v>424</v>
+      </c>
+      <c r="E197">
+        <v>11</v>
+      </c>
+      <c r="F197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>19</v>
+      </c>
+      <c r="B198" t="s">
+        <v>29</v>
+      </c>
+      <c r="C198">
+        <v>353</v>
+      </c>
+      <c r="D198">
+        <v>417</v>
+      </c>
+      <c r="E198">
+        <v>12</v>
+      </c>
+      <c r="F198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>19</v>
+      </c>
+      <c r="B199" t="s">
+        <v>29</v>
+      </c>
+      <c r="C199">
+        <v>354</v>
+      </c>
+      <c r="D199">
+        <v>413</v>
+      </c>
+      <c r="E199">
+        <v>13</v>
+      </c>
+      <c r="F199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>19</v>
+      </c>
+      <c r="B200" t="s">
+        <v>29</v>
+      </c>
+      <c r="C200">
+        <v>349</v>
+      </c>
+      <c r="D200">
+        <v>414</v>
+      </c>
+      <c r="E200">
+        <v>14</v>
+      </c>
+      <c r="F200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>19</v>
+      </c>
+      <c r="B201" t="s">
+        <v>29</v>
+      </c>
+      <c r="C201">
+        <v>345</v>
+      </c>
+      <c r="D201">
+        <v>412</v>
+      </c>
+      <c r="E201">
+        <v>15</v>
+      </c>
+      <c r="F201" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>19</v>
+      </c>
+      <c r="B202" t="s">
+        <v>29</v>
+      </c>
+      <c r="C202">
+        <v>343</v>
+      </c>
+      <c r="D202">
+        <v>412</v>
+      </c>
+      <c r="E202">
+        <v>16</v>
+      </c>
+      <c r="F202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>19</v>
+      </c>
+      <c r="B203" t="s">
+        <v>29</v>
+      </c>
+      <c r="C203">
+        <v>344</v>
+      </c>
+      <c r="D203">
+        <v>416</v>
+      </c>
+      <c r="E203">
+        <v>17</v>
+      </c>
+      <c r="F203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>19</v>
+      </c>
+      <c r="B204" t="s">
+        <v>29</v>
+      </c>
+      <c r="C204">
+        <v>342</v>
+      </c>
+      <c r="D204">
+        <v>411</v>
+      </c>
+      <c r="E204">
+        <v>18</v>
+      </c>
+      <c r="F204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>19</v>
+      </c>
+      <c r="B205" t="s">
+        <v>29</v>
+      </c>
+      <c r="C205">
+        <v>342</v>
+      </c>
+      <c r="D205">
+        <v>417</v>
+      </c>
+      <c r="E205">
+        <v>19</v>
+      </c>
+      <c r="F205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>19</v>
+      </c>
+      <c r="B206" t="s">
+        <v>29</v>
+      </c>
+      <c r="C206">
+        <v>342</v>
+      </c>
+      <c r="D206">
+        <v>411</v>
+      </c>
+      <c r="E206">
+        <v>20</v>
+      </c>
+      <c r="F206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>19</v>
+      </c>
+      <c r="B207" t="s">
+        <v>29</v>
+      </c>
+      <c r="C207">
+        <v>341</v>
+      </c>
+      <c r="D207">
+        <v>411</v>
+      </c>
+      <c r="E207">
+        <v>21</v>
+      </c>
+      <c r="F207" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>19</v>
+      </c>
+      <c r="B208" t="s">
+        <v>29</v>
+      </c>
+      <c r="C208">
+        <v>338</v>
+      </c>
+      <c r="D208">
+        <v>413</v>
+      </c>
+      <c r="E208">
+        <v>22</v>
+      </c>
+      <c r="F208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>19</v>
+      </c>
+      <c r="B209" t="s">
+        <v>29</v>
+      </c>
+      <c r="C209">
+        <v>336</v>
+      </c>
+      <c r="D209">
+        <v>412</v>
+      </c>
+      <c r="E209">
+        <v>23</v>
+      </c>
+      <c r="F209" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>19</v>
+      </c>
+      <c r="B210" t="s">
+        <v>29</v>
+      </c>
+      <c r="C210">
+        <v>336</v>
+      </c>
+      <c r="D210">
+        <v>414</v>
+      </c>
+      <c r="E210">
+        <v>24</v>
+      </c>
+      <c r="F210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>19</v>
+      </c>
+      <c r="B211" t="s">
+        <v>29</v>
+      </c>
+      <c r="C211">
+        <v>338</v>
+      </c>
+      <c r="D211">
+        <v>416</v>
+      </c>
+      <c r="E211">
+        <v>25</v>
+      </c>
+      <c r="F211" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>19</v>
+      </c>
+      <c r="B212" t="s">
+        <v>29</v>
+      </c>
+      <c r="C212">
+        <v>334</v>
+      </c>
+      <c r="D212">
+        <v>411</v>
+      </c>
+      <c r="E212">
+        <v>26</v>
+      </c>
+      <c r="F212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>19</v>
+      </c>
+      <c r="B213" t="s">
+        <v>29</v>
+      </c>
+      <c r="C213">
+        <v>335</v>
+      </c>
+      <c r="D213">
+        <v>413</v>
+      </c>
+      <c r="E213">
+        <v>27</v>
+      </c>
+      <c r="F213" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>19</v>
+      </c>
+      <c r="B214" t="s">
+        <v>29</v>
+      </c>
+      <c r="C214">
+        <v>334</v>
+      </c>
+      <c r="D214">
+        <v>414</v>
+      </c>
+      <c r="E214">
+        <v>28</v>
+      </c>
+      <c r="F214" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>19</v>
+      </c>
+      <c r="B215" t="s">
+        <v>29</v>
+      </c>
+      <c r="C215">
+        <v>334</v>
+      </c>
+      <c r="D215">
+        <v>408</v>
+      </c>
+      <c r="E215">
+        <v>29</v>
+      </c>
+      <c r="F215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>19</v>
+      </c>
+      <c r="B216" t="s">
+        <v>29</v>
+      </c>
+      <c r="C216">
+        <v>335</v>
+      </c>
+      <c r="D216">
+        <v>411</v>
+      </c>
+      <c r="E216">
+        <v>30</v>
+      </c>
+      <c r="F216" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>19</v>
+      </c>
+      <c r="B217" t="s">
+        <v>29</v>
+      </c>
+      <c r="C217">
+        <v>333</v>
+      </c>
+      <c r="D217">
+        <v>406</v>
+      </c>
+      <c r="E217">
+        <v>31</v>
+      </c>
+      <c r="F217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>19</v>
+      </c>
+      <c r="B218" t="s">
+        <v>29</v>
+      </c>
+      <c r="C218" s="1">
+        <v>333</v>
+      </c>
+      <c r="D218" s="1">
+        <v>411</v>
+      </c>
+      <c r="E218">
+        <v>32</v>
+      </c>
+      <c r="F218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>19</v>
+      </c>
+      <c r="B219" t="s">
+        <v>29</v>
+      </c>
+      <c r="C219" s="1">
+        <v>332</v>
+      </c>
+      <c r="D219" s="1">
+        <v>410</v>
+      </c>
+      <c r="E219">
+        <v>33</v>
+      </c>
+      <c r="F219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>19</v>
+      </c>
+      <c r="B220" t="s">
+        <v>29</v>
+      </c>
+      <c r="C220" s="1">
+        <v>332</v>
+      </c>
+      <c r="D220" s="1">
+        <v>413</v>
+      </c>
+      <c r="E220">
+        <v>34</v>
+      </c>
+      <c r="F220" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" t="s">
+        <v>5</v>
+      </c>
+      <c r="H220">
+        <v>8333</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>19</v>
+      </c>
+      <c r="B221" t="s">
+        <v>29</v>
+      </c>
+      <c r="C221" s="1">
+        <v>332</v>
+      </c>
+      <c r="D221" s="1">
+        <v>414</v>
+      </c>
+      <c r="E221">
+        <v>35</v>
+      </c>
+      <c r="F221" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" t="s">
+        <v>6</v>
+      </c>
+      <c r="H221">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>19</v>
+      </c>
+      <c r="B222" t="s">
+        <v>29</v>
+      </c>
+      <c r="C222" s="1">
+        <v>331</v>
+      </c>
+      <c r="D222" s="1">
+        <v>410</v>
+      </c>
+      <c r="E222">
+        <v>36</v>
+      </c>
+      <c r="F222" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="E1:E100"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>